--- a/documentation/Nordic_Compass_fields_definitions.xlsx
+++ b/documentation/Nordic_Compass_fields_definitions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365abdn-my.sharepoint.com/personal/t12jd22_abdn_ac_uk/Documents/01 - Turing College/D99 - Capstone Project/ESG Ratings Project - Nordic Compass/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365abdn-my.sharepoint.com/personal/t12jd22_abdn_ac_uk/Documents/01 - Turing College/D99 - Capstone Project/Nordic Compass - ESG Performance and CSRD Compliance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4A10A307-622A-4392-B344-D23B68A6B3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156349BC-EBAE-4889-B6C9-CA8203EA7798}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{4A10A307-622A-4392-B344-D23B68A6B3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E752C6-6181-4DC3-BC84-F6A2C6DD2206}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2800,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3846,7 +3846,7 @@
       <c r="A73" s="26">
         <v>57</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="52" t="s">
         <v>247</v>
       </c>
       <c r="C73" s="33" t="s">
